--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-24T06:44:53+00:00</t>
+    <t>2022-10-04T12:47:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,13 +54,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-18T08:56:45+00:00</t>
+    <t>2022-10-25T10:50:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>WHO</t>
+    <t>UP Manila Viral Hepatitis Project</t>
   </si>
   <si>
     <t>Contact</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T10:50:26+00:00</t>
+    <t>2022-10-25T11:01:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T11:01:47+00:00</t>
+    <t>2022-11-15T08:01:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T08:01:14+00:00</t>
+    <t>2022-11-21T11:23:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="617">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T11:23:27+00:00</t>
+    <t>2022-12-05T08:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -463,14 +463,11 @@
 </t>
   </si>
   <si>
-    <t>myExtension</t>
+    <t>Nationality</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {patient-nationality}
 </t>
-  </si>
-  <si>
-    <t>Nationality</t>
   </si>
   <si>
     <t>The nationality of the patient.</t>
@@ -3569,10 +3566,10 @@
         <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3655,11 +3652,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3681,16 +3678,16 @@
         <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>79</v>
@@ -3739,7 +3736,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3771,7 +3768,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3779,10 +3776,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3794,17 +3791,17 @@
         <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3841,7 +3838,7 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
@@ -3851,7 +3848,7 @@
         <v>134</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3866,16 +3863,16 @@
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3883,10 +3880,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3908,17 +3905,17 @@
         <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3967,7 +3964,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3982,16 +3979,16 @@
         <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3999,7 +3996,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4022,13 +4019,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4079,22 +4076,22 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -4111,11 +4108,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4137,13 +4134,13 @@
         <v>130</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4184,7 +4181,7 @@
         <v>133</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>79</v>
@@ -4193,7 +4190,7 @@
         <v>134</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4208,7 +4205,7 @@
         <v>136</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -4225,7 +4222,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4251,65 +4248,65 @@
         <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W18" t="s" s="2">
+      <c r="X18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4324,7 +4321,7 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4341,7 +4338,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4364,19 +4361,19 @@
         <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4401,31 +4398,31 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4440,7 +4437,7 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4449,7 +4446,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4457,7 +4454,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4483,16 +4480,16 @@
         <v>99</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4505,43 +4502,43 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4556,16 +4553,16 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4573,7 +4570,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4596,16 +4593,16 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4619,43 +4616,43 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4670,16 +4667,16 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4687,7 +4684,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4710,13 +4707,13 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4767,7 +4764,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4782,16 +4779,16 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4799,7 +4796,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4822,16 +4819,16 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4881,7 +4878,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4896,16 +4893,16 @@
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4913,10 +4910,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
@@ -4938,17 +4935,17 @@
         <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4997,7 +4994,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5012,16 +5009,16 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5029,7 +5026,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5052,13 +5049,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5109,22 +5106,22 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
@@ -5141,11 +5138,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5167,13 +5164,13 @@
         <v>130</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5214,7 +5211,7 @@
         <v>133</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
@@ -5223,7 +5220,7 @@
         <v>134</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5238,7 +5235,7 @@
         <v>136</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -5255,7 +5252,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5281,23 +5278,23 @@
         <v>105</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
@@ -5315,31 +5312,31 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5354,7 +5351,7 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5371,7 +5368,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5394,19 +5391,19 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5431,31 +5428,31 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5470,7 +5467,7 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5479,7 +5476,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5487,7 +5484,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5513,16 +5510,16 @@
         <v>99</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5535,43 +5532,43 @@
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5586,16 +5583,16 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5603,7 +5600,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5626,16 +5623,16 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5649,43 +5646,43 @@
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5700,16 +5697,16 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5717,7 +5714,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5740,13 +5737,13 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5797,7 +5794,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5812,16 +5809,16 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5829,7 +5826,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5852,16 +5849,16 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5911,7 +5908,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5926,16 +5923,16 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5943,10 +5940,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>79</v>
@@ -5968,17 +5965,17 @@
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6027,7 +6024,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6042,16 +6039,16 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6059,7 +6056,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6082,13 +6079,13 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6139,22 +6136,22 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -6171,11 +6168,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6197,13 +6194,13 @@
         <v>130</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6244,7 +6241,7 @@
         <v>133</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
@@ -6253,7 +6250,7 @@
         <v>134</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6268,7 +6265,7 @@
         <v>136</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6285,7 +6282,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6311,23 +6308,23 @@
         <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6345,31 +6342,31 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X36" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X36" t="s" s="2">
+      <c r="Y36" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6384,7 +6381,7 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6401,7 +6398,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6424,19 +6421,19 @@
         <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6461,31 +6458,31 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X37" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X37" t="s" s="2">
+      <c r="Y37" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6500,7 +6497,7 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6509,7 +6506,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6517,7 +6514,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6543,16 +6540,16 @@
         <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6565,43 +6562,43 @@
         <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6616,16 +6613,16 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6633,7 +6630,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6656,16 +6653,16 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6679,43 +6676,43 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6730,16 +6727,16 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6747,7 +6744,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6770,13 +6767,13 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6827,7 +6824,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6842,16 +6839,16 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6859,7 +6856,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6882,16 +6879,16 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6941,7 +6938,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6956,16 +6953,16 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6973,7 +6970,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6996,26 +6993,26 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P42" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="O42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Q42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7059,7 +7056,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7074,13 +7071,13 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7091,7 +7088,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7114,19 +7111,19 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7175,7 +7172,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7190,16 +7187,16 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7207,7 +7204,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7230,13 +7227,13 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7287,22 +7284,22 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7319,11 +7316,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7345,13 +7342,13 @@
         <v>130</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7392,7 +7389,7 @@
         <v>133</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
@@ -7401,7 +7398,7 @@
         <v>134</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7416,7 +7413,7 @@
         <v>136</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7433,7 +7430,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7459,16 +7456,16 @@
         <v>105</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7493,31 +7490,31 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7532,16 +7529,16 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7549,7 +7546,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7572,19 +7569,19 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7633,7 +7630,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7648,16 +7645,16 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7665,11 +7662,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7688,16 +7685,16 @@
         <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7747,7 +7744,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7762,16 +7759,16 @@
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7779,11 +7776,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7802,16 +7799,16 @@
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7861,7 +7858,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7876,16 +7873,16 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7893,7 +7890,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7916,13 +7913,13 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7973,7 +7970,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7988,16 +7985,16 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8005,7 +8002,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8028,13 +8025,13 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8085,7 +8082,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8100,16 +8097,16 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8117,7 +8114,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8140,17 +8137,17 @@
         <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8199,7 +8196,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8214,16 +8211,16 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8231,7 +8228,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8254,19 +8251,19 @@
         <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8315,7 +8312,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8330,16 +8327,16 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8347,7 +8344,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8370,13 +8367,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8427,22 +8424,22 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8459,11 +8456,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8485,13 +8482,13 @@
         <v>130</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8532,7 +8529,7 @@
         <v>133</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>79</v>
@@ -8541,7 +8538,7 @@
         <v>134</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8556,7 +8553,7 @@
         <v>136</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8573,7 +8570,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8599,10 +8596,10 @@
         <v>105</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8629,55 +8626,55 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8685,7 +8682,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8708,19 +8705,19 @@
         <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8769,7 +8766,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8784,16 +8781,16 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8801,7 +8798,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8827,65 +8824,65 @@
         <v>105</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X58" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X58" t="s" s="2">
+      <c r="Y58" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8900,7 +8897,7 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8909,7 +8906,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8917,7 +8914,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8940,16 +8937,16 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8999,7 +8996,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9014,7 +9011,7 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9023,7 +9020,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9031,7 +9028,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9054,13 +9051,13 @@
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9111,7 +9108,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9126,7 +9123,7 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9143,7 +9140,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9169,16 +9166,16 @@
         <v>105</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9203,14 +9200,14 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9227,7 +9224,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9242,16 +9239,16 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9259,7 +9256,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9267,7 +9264,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>85</v>
@@ -9282,19 +9279,19 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9343,7 +9340,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9358,24 +9355,24 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9398,19 +9395,19 @@
         <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9459,7 +9456,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9474,16 +9471,16 @@
         <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9491,7 +9488,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9502,7 +9499,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9514,19 +9511,19 @@
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9575,7 +9572,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9590,16 +9587,16 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9607,7 +9604,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9630,13 +9627,13 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9687,22 +9684,22 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -9719,11 +9716,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9745,13 +9742,13 @@
         <v>130</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M66" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9792,7 +9789,7 @@
         <v>133</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
@@ -9801,7 +9798,7 @@
         <v>134</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9816,7 +9813,7 @@
         <v>136</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -9833,7 +9830,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9859,16 +9856,16 @@
         <v>105</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9881,43 +9878,43 @@
         <v>79</v>
       </c>
       <c r="S67" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X67" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="T67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X67" t="s" s="2">
+      <c r="Y67" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9932,7 +9929,7 @@
         <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -9941,7 +9938,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9949,7 +9946,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9975,13 +9972,13 @@
         <v>105</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9989,49 +9986,49 @@
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X68" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="R68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X68" t="s" s="2">
+      <c r="Y68" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10046,7 +10043,7 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10055,7 +10052,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10063,7 +10060,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10086,19 +10083,19 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10111,43 +10108,43 @@
         <v>79</v>
       </c>
       <c r="S69" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10162,7 +10159,7 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10171,7 +10168,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10179,7 +10176,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10202,13 +10199,13 @@
         <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10223,43 +10220,43 @@
         <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10274,16 +10271,16 @@
         <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10291,11 +10288,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10314,13 +10311,13 @@
         <v>86</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10335,43 +10332,43 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10386,16 +10383,16 @@
         <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10403,11 +10400,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10426,16 +10423,16 @@
         <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10449,43 +10446,43 @@
         <v>79</v>
       </c>
       <c r="S72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10500,16 +10497,16 @@
         <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10517,11 +10514,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10540,13 +10537,13 @@
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10597,7 +10594,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10612,16 +10609,16 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10629,11 +10626,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10652,13 +10649,13 @@
         <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10673,43 +10670,43 @@
         <v>79</v>
       </c>
       <c r="S74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10724,16 +10721,16 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10741,7 +10738,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10764,16 +10761,16 @@
         <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10823,7 +10820,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10838,16 +10835,16 @@
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10855,7 +10852,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10878,17 +10875,17 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10901,43 +10898,43 @@
         <v>79</v>
       </c>
       <c r="S76" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10952,7 +10949,7 @@
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -10961,7 +10958,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10969,7 +10966,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10977,7 +10974,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>85</v>
@@ -10992,17 +10989,17 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11027,14 +11024,14 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11051,7 +11048,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11066,16 +11063,16 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11083,7 +11080,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11106,19 +11103,19 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11167,7 +11164,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11182,16 +11179,16 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11199,7 +11196,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11222,19 +11219,19 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11283,7 +11280,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11298,16 +11295,16 @@
         <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11315,7 +11312,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11338,19 +11335,19 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11399,7 +11396,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11411,13 +11408,13 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AJ80" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="AK80" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
@@ -11431,7 +11428,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11454,13 +11451,13 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11511,22 +11508,22 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11543,11 +11540,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11569,13 +11566,13 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M82" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11625,7 +11622,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11640,7 +11637,7 @@
         <v>136</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -11657,11 +11654,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11683,16 +11680,16 @@
         <v>130</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="M83" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11741,7 +11738,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11773,7 +11770,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11796,17 +11793,17 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11831,14 +11828,14 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
       </c>
@@ -11855,7 +11852,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11870,16 +11867,16 @@
         <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -11887,7 +11884,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11910,17 +11907,17 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11969,7 +11966,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11984,16 +11981,16 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12001,7 +11998,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12024,19 +12021,19 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="N86" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12085,7 +12082,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12100,16 +12097,16 @@
         <v>97</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12117,7 +12114,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12140,17 +12137,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12199,7 +12196,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12214,16 +12211,16 @@
         <v>97</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12231,7 +12228,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12257,14 +12254,14 @@
         <v>105</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12289,14 +12286,14 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y88" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12313,7 +12310,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12328,16 +12325,16 @@
         <v>97</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12345,7 +12342,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12368,17 +12365,17 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12427,7 +12424,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12436,22 +12433,22 @@
         <v>85</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12459,7 +12456,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12482,13 +12479,13 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12539,7 +12536,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12554,10 +12551,10 @@
         <v>97</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>79</v>
@@ -12571,7 +12568,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12594,19 +12591,19 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12655,7 +12652,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12670,10 +12667,10 @@
         <v>97</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>79</v>
@@ -12687,7 +12684,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12710,13 +12707,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12767,22 +12764,22 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
@@ -12799,11 +12796,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12825,13 +12822,13 @@
         <v>130</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M93" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12881,7 +12878,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12896,7 +12893,7 @@
         <v>136</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
@@ -12913,11 +12910,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12939,16 +12936,16 @@
         <v>130</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="M94" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -12997,7 +12994,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13029,7 +13026,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13052,19 +13049,19 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13113,7 +13110,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>85</v>
@@ -13128,16 +13125,16 @@
         <v>97</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AK95" t="s" s="2">
+      <c r="AL95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13145,7 +13142,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13168,19 +13165,19 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13229,7 +13226,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13244,16 +13241,16 @@
         <v>97</v>
       </c>
       <c r="AJ96" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="AK96" t="s" s="2">
+      <c r="AL96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13261,11 +13258,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13284,16 +13281,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13343,7 +13340,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13358,16 +13355,16 @@
         <v>97</v>
       </c>
       <c r="AJ97" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13375,7 +13372,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13398,19 +13395,19 @@
         <v>86</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13459,7 +13456,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13474,10 +13471,10 @@
         <v>97</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>79</v>
@@ -13491,7 +13488,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13514,19 +13511,19 @@
         <v>86</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13575,7 +13572,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13590,10 +13587,10 @@
         <v>97</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
@@ -13607,7 +13604,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13630,13 +13627,13 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13687,22 +13684,22 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
@@ -13719,11 +13716,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13745,13 +13742,13 @@
         <v>130</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L101" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M101" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13801,7 +13798,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13816,7 +13813,7 @@
         <v>136</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
@@ -13833,11 +13830,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13859,16 +13856,16 @@
         <v>130</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="L102" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="M102" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>79</v>
@@ -13917,7 +13914,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -13949,7 +13946,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13972,16 +13969,16 @@
         <v>86</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14031,7 +14028,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>85</v>
@@ -14046,16 +14043,16 @@
         <v>97</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14063,7 +14060,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14089,10 +14086,10 @@
         <v>105</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14119,14 +14116,14 @@
         <v>79</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="X104" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="Y104" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="Y104" t="s" s="2">
-        <v>616</v>
-      </c>
       <c r="Z104" t="s" s="2">
         <v>79</v>
       </c>
@@ -14143,7 +14140,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>85</v>
@@ -14158,10 +14155,10 @@
         <v>97</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>79</v>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T07:40:14+00:00</t>
+    <t>2023-01-11T07:56:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T07:56:36+00:00</t>
+    <t>2023-01-11T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T08:04:46+00:00</t>
+    <t>2023-01-11T08:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T08:30:54+00:00</t>
+    <t>2023-01-11T09:49:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T09:49:58+00:00</t>
+    <t>2023-01-11T09:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T09:59:49+00:00</t>
+    <t>2023-01-11T10:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:05:15+00:00</t>
+    <t>2023-01-11T10:23:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:23:12+00:00</t>
+    <t>2023-01-11T10:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:43:46+00:00</t>
+    <t>2023-01-11T10:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:44:27+00:00</t>
+    <t>2023-01-11T10:45:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T10:45:19+00:00</t>
+    <t>2023-03-22T05:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="650">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T05:02:53+00:00</t>
+    <t>2023-06-06T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,12 +456,6 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -476,14 +470,23 @@
 </t>
   </si>
   <si>
-    <t>Patient.extension:Nationality</t>
-  </si>
-  <si>
-    <t>Nationality</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>Patient.extension:myExtension</t>
+  </si>
+  <si>
+    <t>myExtension</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {patient-nationality}
 </t>
+  </si>
+  <si>
+    <t>Nationality</t>
   </si>
   <si>
     <t>The nationality of the patient.</t>
@@ -3465,10 +3468,10 @@
         <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3528,13 +3531,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -3551,13 +3554,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
@@ -3579,13 +3582,13 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3645,7 +3648,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>138</v>
@@ -3699,10 +3702,10 @@
         <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3762,7 +3765,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>138</v>
@@ -3785,14 +3788,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3814,16 +3817,16 @@
         <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3872,7 +3875,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3904,10 +3907,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3915,10 +3918,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3930,17 +3933,17 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3977,7 +3980,7 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
@@ -3987,7 +3990,7 @@
         <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4002,16 +4005,16 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -4019,13 +4022,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>80</v>
@@ -4047,17 +4050,17 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -4106,7 +4109,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4121,16 +4124,16 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -4138,10 +4141,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4164,13 +4167,13 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4221,7 +4224,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4236,7 +4239,7 @@
         <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -4253,14 +4256,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4282,13 +4285,13 @@
         <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4329,7 +4332,7 @@
         <v>135</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
@@ -4338,7 +4341,7 @@
         <v>136</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4353,7 +4356,7 @@
         <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
@@ -4370,10 +4373,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4399,23 +4402,23 @@
         <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>80</v>
@@ -4433,13 +4436,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -4457,7 +4460,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4472,7 +4475,7 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -4489,10 +4492,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4515,19 +4518,19 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4552,13 +4555,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -4576,7 +4579,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4591,7 +4594,7 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4600,7 +4603,7 @@
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4608,10 +4611,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4637,16 +4640,16 @@
         <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4659,7 +4662,7 @@
         <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>80</v>
@@ -4695,7 +4698,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4710,7 +4713,7 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
@@ -4719,7 +4722,7 @@
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4727,10 +4730,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4753,16 +4756,16 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4776,7 +4779,7 @@
         <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>80</v>
@@ -4812,7 +4815,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4827,7 +4830,7 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -4836,7 +4839,7 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4844,10 +4847,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4870,13 +4873,13 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4927,7 +4930,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4942,7 +4945,7 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -4951,7 +4954,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4959,10 +4962,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4985,16 +4988,16 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5044,7 +5047,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5059,7 +5062,7 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -5068,7 +5071,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5076,13 +5079,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>80</v>
@@ -5104,17 +5107,17 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5163,7 +5166,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5178,16 +5181,16 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5195,10 +5198,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5221,13 +5224,13 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5278,7 +5281,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5293,7 +5296,7 @@
         <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -5310,14 +5313,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5339,13 +5342,13 @@
         <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5386,7 +5389,7 @@
         <v>135</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
@@ -5395,7 +5398,7 @@
         <v>136</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5410,7 +5413,7 @@
         <v>138</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -5427,10 +5430,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5456,23 +5459,23 @@
         <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>80</v>
@@ -5490,13 +5493,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5514,7 +5517,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5529,7 +5532,7 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5546,10 +5549,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5572,19 +5575,19 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5609,13 +5612,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5633,7 +5636,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5648,7 +5651,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5657,7 +5660,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5665,10 +5668,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5694,16 +5697,16 @@
         <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5716,7 +5719,7 @@
         <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>80</v>
@@ -5752,7 +5755,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5767,7 +5770,7 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5776,7 +5779,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5784,10 +5787,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5810,16 +5813,16 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5833,7 +5836,7 @@
         <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>80</v>
@@ -5869,7 +5872,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5884,7 +5887,7 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5893,7 +5896,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5901,10 +5904,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5927,13 +5930,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5984,7 +5987,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5999,7 +6002,7 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -6008,7 +6011,7 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -6016,10 +6019,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6042,16 +6045,16 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6101,7 +6104,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6116,7 +6119,7 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -6125,7 +6128,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6133,13 +6136,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>80</v>
@@ -6161,17 +6164,17 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6220,7 +6223,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6235,16 +6238,16 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6252,10 +6255,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6278,13 +6281,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6335,7 +6338,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6350,7 +6353,7 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -6367,14 +6370,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6396,13 +6399,13 @@
         <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6443,7 +6446,7 @@
         <v>135</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
@@ -6452,7 +6455,7 @@
         <v>136</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6467,7 +6470,7 @@
         <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6484,10 +6487,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6513,23 +6516,23 @@
         <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6547,13 +6550,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6571,7 +6574,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6586,7 +6589,7 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6603,10 +6606,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6629,19 +6632,19 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6666,13 +6669,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6690,7 +6693,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6705,7 +6708,7 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6714,7 +6717,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6722,10 +6725,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6751,16 +6754,16 @@
         <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6773,7 +6776,7 @@
         <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>80</v>
@@ -6809,7 +6812,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6824,7 +6827,7 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6833,7 +6836,7 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6841,10 +6844,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6867,16 +6870,16 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6890,7 +6893,7 @@
         <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>80</v>
@@ -6926,7 +6929,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6941,7 +6944,7 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6950,7 +6953,7 @@
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6958,10 +6961,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6984,13 +6987,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7041,7 +7044,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7056,7 +7059,7 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -7065,7 +7068,7 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7073,10 +7076,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7099,16 +7102,16 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7158,7 +7161,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7173,7 +7176,7 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -7182,7 +7185,7 @@
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7190,10 +7193,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7216,70 +7219,70 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q42" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q42" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7294,13 +7297,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7311,10 +7314,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7337,19 +7340,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7398,7 +7401,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7413,16 +7416,16 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7430,10 +7433,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7456,13 +7459,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7513,7 +7516,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7528,7 +7531,7 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -7545,14 +7548,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7574,13 +7577,13 @@
         <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7621,7 +7624,7 @@
         <v>135</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>80</v>
@@ -7630,7 +7633,7 @@
         <v>136</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7645,7 +7648,7 @@
         <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -7662,10 +7665,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7691,16 +7694,16 @@
         <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7725,13 +7728,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7749,7 +7752,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7764,7 +7767,7 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7773,7 +7776,7 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7781,10 +7784,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7807,19 +7810,19 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7868,7 +7871,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7883,7 +7886,7 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7892,7 +7895,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7900,14 +7903,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7926,16 +7929,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7985,7 +7988,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8000,7 +8003,7 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -8009,7 +8012,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8017,14 +8020,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -8043,16 +8046,16 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8102,7 +8105,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8117,7 +8120,7 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -8126,7 +8129,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8134,10 +8137,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8160,13 +8163,13 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8217,7 +8220,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8232,7 +8235,7 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -8241,7 +8244,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8249,10 +8252,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8275,13 +8278,13 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8332,7 +8335,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8347,7 +8350,7 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -8356,7 +8359,7 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8364,10 +8367,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8390,17 +8393,17 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8449,7 +8452,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8464,7 +8467,7 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8473,7 +8476,7 @@
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8481,10 +8484,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8507,19 +8510,19 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8568,7 +8571,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8583,16 +8586,16 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8600,10 +8603,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8626,13 +8629,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8683,7 +8686,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8698,7 +8701,7 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8715,14 +8718,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8744,13 +8747,13 @@
         <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8791,7 +8794,7 @@
         <v>135</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
@@ -8800,7 +8803,7 @@
         <v>136</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8815,7 +8818,7 @@
         <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8832,10 +8835,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8861,10 +8864,10 @@
         <v>107</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8891,13 +8894,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8915,7 +8918,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8924,13 +8927,13 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8939,7 +8942,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8947,10 +8950,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8973,19 +8976,19 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9034,7 +9037,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9049,7 +9052,7 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -9058,7 +9061,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9066,10 +9069,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9095,23 +9098,23 @@
         <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>80</v>
@@ -9129,13 +9132,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -9153,7 +9156,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9168,7 +9171,7 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -9177,7 +9180,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9185,10 +9188,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9211,16 +9214,16 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9270,7 +9273,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9285,7 +9288,7 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -9294,7 +9297,7 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9302,10 +9305,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9328,13 +9331,13 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9385,7 +9388,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9400,7 +9403,7 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -9417,10 +9420,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9446,16 +9449,16 @@
         <v>107</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9480,13 +9483,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9504,7 +9507,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9519,16 +9522,16 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9536,10 +9539,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9547,7 +9550,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>87</v>
@@ -9562,19 +9565,19 @@
         <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9623,7 +9626,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9638,27 +9641,27 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9681,19 +9684,19 @@
         <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9742,7 +9745,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9757,16 +9760,16 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9774,10 +9777,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9788,7 +9791,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9800,19 +9803,19 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9861,7 +9864,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9876,16 +9879,16 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9893,10 +9896,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9919,13 +9922,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9976,7 +9979,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9991,7 +9994,7 @@
         <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>80</v>
@@ -10008,14 +10011,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10037,13 +10040,13 @@
         <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10084,7 +10087,7 @@
         <v>135</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
@@ -10093,7 +10096,7 @@
         <v>136</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10108,7 +10111,7 @@
         <v>138</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
@@ -10125,10 +10128,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10154,16 +10157,16 @@
         <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10176,7 +10179,7 @@
         <v>80</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>80</v>
@@ -10188,13 +10191,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10212,7 +10215,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10227,7 +10230,7 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
@@ -10236,7 +10239,7 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10244,10 +10247,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10273,13 +10276,13 @@
         <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10287,13 +10290,13 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>80</v>
@@ -10305,13 +10308,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10329,7 +10332,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10344,7 +10347,7 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -10353,7 +10356,7 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10361,10 +10364,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10387,19 +10390,19 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10412,7 +10415,7 @@
         <v>80</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>80</v>
@@ -10448,7 +10451,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10463,7 +10466,7 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -10472,7 +10475,7 @@
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10480,10 +10483,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10506,13 +10509,13 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10527,7 +10530,7 @@
         <v>80</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>80</v>
@@ -10563,7 +10566,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10578,7 +10581,7 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10587,7 +10590,7 @@
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10595,14 +10598,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10621,13 +10624,13 @@
         <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10642,7 +10645,7 @@
         <v>80</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>80</v>
@@ -10678,7 +10681,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10693,7 +10696,7 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10702,7 +10705,7 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10710,14 +10713,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10736,16 +10739,16 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10759,7 +10762,7 @@
         <v>80</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>80</v>
@@ -10795,7 +10798,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10810,7 +10813,7 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -10819,7 +10822,7 @@
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10827,14 +10830,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10853,13 +10856,13 @@
         <v>88</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10910,7 +10913,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10925,7 +10928,7 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>80</v>
@@ -10934,7 +10937,7 @@
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10942,14 +10945,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10968,13 +10971,13 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10989,7 +10992,7 @@
         <v>80</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>80</v>
@@ -11025,7 +11028,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11040,7 +11043,7 @@
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
@@ -11049,7 +11052,7 @@
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11057,10 +11060,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11083,16 +11086,16 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11142,7 +11145,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11157,7 +11160,7 @@
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
@@ -11166,7 +11169,7 @@
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11174,10 +11177,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11200,17 +11203,17 @@
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11223,7 +11226,7 @@
         <v>80</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>80</v>
@@ -11259,7 +11262,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11274,7 +11277,7 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>
@@ -11283,7 +11286,7 @@
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11291,10 +11294,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11302,7 +11305,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>87</v>
@@ -11317,17 +11320,17 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11352,13 +11355,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11376,7 +11379,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11391,16 +11394,16 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11408,10 +11411,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11434,19 +11437,19 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11495,7 +11498,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11510,16 +11513,16 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11527,10 +11530,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11553,19 +11556,19 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11614,7 +11617,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11629,16 +11632,16 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11646,10 +11649,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11672,19 +11675,19 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11733,7 +11736,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11745,13 +11748,13 @@
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11765,10 +11768,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11791,13 +11794,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11848,7 +11851,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11863,7 +11866,7 @@
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -11880,14 +11883,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11909,13 +11912,13 @@
         <v>132</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11965,7 +11968,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11980,7 +11983,7 @@
         <v>138</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>80</v>
@@ -11997,14 +12000,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12026,16 +12029,16 @@
         <v>132</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12084,7 +12087,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12116,10 +12119,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12142,17 +12145,17 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12177,13 +12180,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -12201,7 +12204,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12216,16 +12219,16 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12233,10 +12236,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12259,17 +12262,17 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12318,7 +12321,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12333,16 +12336,16 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12350,10 +12353,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12376,19 +12379,19 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12437,7 +12440,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12452,16 +12455,16 @@
         <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12469,10 +12472,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12495,17 +12498,17 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12554,7 +12557,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12569,16 +12572,16 @@
         <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12586,10 +12589,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12615,14 +12618,14 @@
         <v>107</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12647,13 +12650,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -12671,7 +12674,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12686,16 +12689,16 @@
         <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12703,10 +12706,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12729,17 +12732,17 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12788,7 +12791,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12797,22 +12800,22 @@
         <v>87</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -12820,10 +12823,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12846,13 +12849,13 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12903,7 +12906,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12918,10 +12921,10 @@
         <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12935,10 +12938,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12961,19 +12964,19 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13022,7 +13025,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13037,10 +13040,10 @@
         <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
@@ -13054,10 +13057,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13080,13 +13083,13 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13137,7 +13140,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13152,7 +13155,7 @@
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>80</v>
@@ -13169,14 +13172,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13198,13 +13201,13 @@
         <v>132</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13254,7 +13257,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13269,7 +13272,7 @@
         <v>138</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>80</v>
@@ -13286,14 +13289,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13315,16 +13318,16 @@
         <v>132</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13373,7 +13376,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13405,10 +13408,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13431,19 +13434,19 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13492,7 +13495,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>87</v>
@@ -13507,16 +13510,16 @@
         <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13524,10 +13527,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13550,19 +13553,19 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13611,7 +13614,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13626,16 +13629,16 @@
         <v>99</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13643,14 +13646,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13669,16 +13672,16 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13728,7 +13731,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13743,16 +13746,16 @@
         <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -13760,10 +13763,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13786,19 +13789,19 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13847,7 +13850,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13862,10 +13865,10 @@
         <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
@@ -13879,10 +13882,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13905,19 +13908,19 @@
         <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -13966,7 +13969,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13981,10 +13984,10 @@
         <v>99</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
@@ -13998,10 +14001,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14024,13 +14027,13 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14081,7 +14084,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14096,7 +14099,7 @@
         <v>80</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>80</v>
@@ -14113,14 +14116,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14142,13 +14145,13 @@
         <v>132</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14198,7 +14201,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14213,7 +14216,7 @@
         <v>138</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>80</v>
@@ -14230,14 +14233,14 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14259,16 +14262,16 @@
         <v>132</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14317,7 +14320,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14349,10 +14352,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14375,16 +14378,16 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14434,7 +14437,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>87</v>
@@ -14449,16 +14452,16 @@
         <v>99</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>
@@ -14466,10 +14469,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14495,10 +14498,10 @@
         <v>107</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14525,13 +14528,13 @@
         <v>80</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
@@ -14549,7 +14552,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>87</v>
@@ -14564,10 +14567,10 @@
         <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>

--- a/refs/heads/main/StructureDefinition-VHPatient2.xlsx
+++ b/refs/heads/main/StructureDefinition-VHPatient2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="607">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T12:43:51+00:00</t>
+    <t>2023-06-26T10:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -345,12 +345,6 @@
   <si>
     <t xml:space="preserve">Extension {https://up.smilecdr.com:8000/StructureDefinition/2132}
 </t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Patient.extension:myExtension</t>
@@ -3336,10 +3330,10 @@
         <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3405,7 +3399,7 @@
         <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>39</v>
@@ -3422,13 +3416,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>39</v>
@@ -3450,13 +3444,13 @@
         <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3539,14 +3533,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3568,16 +3562,16 @@
         <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>39</v>
@@ -3626,7 +3620,7 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -3658,10 +3652,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3669,10 +3663,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>39</v>
@@ -3684,17 +3678,17 @@
         <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>39</v>
@@ -3731,7 +3725,7 @@
         <v>39</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
@@ -3741,7 +3735,7 @@
         <v>95</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -3756,16 +3750,16 @@
         <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>39</v>
@@ -3773,13 +3767,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>39</v>
@@ -3801,17 +3795,17 @@
         <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>39</v>
@@ -3860,7 +3854,7 @@
         <v>39</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
@@ -3875,16 +3869,16 @@
         <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>39</v>
@@ -3892,10 +3886,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3918,13 +3912,13 @@
         <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3975,7 +3969,7 @@
         <v>39</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
@@ -3990,7 +3984,7 @@
         <v>39</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -4007,14 +4001,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4036,13 +4030,13 @@
         <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4083,7 +4077,7 @@
         <v>94</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>39</v>
@@ -4092,7 +4086,7 @@
         <v>95</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -4107,7 +4101,7 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -4124,10 +4118,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4153,65 +4147,65 @@
         <v>66</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -4226,7 +4220,7 @@
         <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -4243,10 +4237,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4269,19 +4263,19 @@
         <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>39</v>
@@ -4306,31 +4300,31 @@
         <v>39</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -4345,7 +4339,7 @@
         <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -4354,7 +4348,7 @@
         <v>39</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>39</v>
@@ -4362,10 +4356,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4391,16 +4385,16 @@
         <v>60</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>39</v>
@@ -4413,7 +4407,7 @@
         <v>39</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>39</v>
@@ -4449,7 +4443,7 @@
         <v>39</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
@@ -4464,7 +4458,7 @@
         <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -4473,7 +4467,7 @@
         <v>39</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>39</v>
@@ -4481,10 +4475,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4507,16 +4501,16 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4530,7 +4524,7 @@
         <v>39</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>39</v>
@@ -4566,7 +4560,7 @@
         <v>39</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -4581,7 +4575,7 @@
         <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -4590,7 +4584,7 @@
         <v>39</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>39</v>
@@ -4598,10 +4592,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4624,13 +4618,13 @@
         <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4681,7 +4675,7 @@
         <v>39</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
@@ -4696,7 +4690,7 @@
         <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -4705,7 +4699,7 @@
         <v>39</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>39</v>
@@ -4713,10 +4707,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4739,16 +4733,16 @@
         <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4798,7 +4792,7 @@
         <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
@@ -4813,7 +4807,7 @@
         <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>39</v>
@@ -4822,7 +4816,7 @@
         <v>39</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>39</v>
@@ -4830,13 +4824,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>39</v>
@@ -4858,17 +4852,17 @@
         <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>39</v>
@@ -4917,7 +4911,7 @@
         <v>39</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
@@ -4932,16 +4926,16 @@
         <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>39</v>
@@ -4949,10 +4943,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4975,13 +4969,13 @@
         <v>39</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5032,7 +5026,7 @@
         <v>39</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
@@ -5047,7 +5041,7 @@
         <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -5064,14 +5058,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5093,13 +5087,13 @@
         <v>91</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5140,7 +5134,7 @@
         <v>94</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>39</v>
@@ -5149,7 +5143,7 @@
         <v>95</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -5164,7 +5158,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>39</v>
@@ -5181,10 +5175,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5210,23 +5204,23 @@
         <v>66</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="O26" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>39</v>
@@ -5244,31 +5238,31 @@
         <v>39</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
@@ -5283,7 +5277,7 @@
         <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -5300,10 +5294,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5326,19 +5320,19 @@
         <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>39</v>
@@ -5363,31 +5357,31 @@
         <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
@@ -5402,7 +5396,7 @@
         <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>39</v>
@@ -5411,7 +5405,7 @@
         <v>39</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>39</v>
@@ -5419,10 +5413,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5448,16 +5442,16 @@
         <v>60</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>39</v>
@@ -5470,7 +5464,7 @@
         <v>39</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>39</v>
@@ -5506,7 +5500,7 @@
         <v>39</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
@@ -5521,7 +5515,7 @@
         <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -5530,7 +5524,7 @@
         <v>39</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>39</v>
@@ -5538,10 +5532,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5564,16 +5558,16 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5587,7 +5581,7 @@
         <v>39</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>39</v>
@@ -5623,7 +5617,7 @@
         <v>39</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
@@ -5638,7 +5632,7 @@
         <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -5647,7 +5641,7 @@
         <v>39</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>39</v>
@@ -5655,10 +5649,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5681,13 +5675,13 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5738,7 +5732,7 @@
         <v>39</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
@@ -5753,7 +5747,7 @@
         <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -5762,7 +5756,7 @@
         <v>39</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>39</v>
@@ -5770,10 +5764,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5796,16 +5790,16 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5855,7 +5849,7 @@
         <v>39</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -5870,7 +5864,7 @@
         <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
@@ -5879,7 +5873,7 @@
         <v>39</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>39</v>
@@ -5887,13 +5881,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>39</v>
@@ -5915,17 +5909,17 @@
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>39</v>
@@ -5974,7 +5968,7 @@
         <v>39</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
@@ -5989,16 +5983,16 @@
         <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>39</v>
@@ -6006,10 +6000,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6032,13 +6026,13 @@
         <v>39</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6089,7 +6083,7 @@
         <v>39</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
@@ -6104,7 +6098,7 @@
         <v>39</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -6121,14 +6115,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6150,13 +6144,13 @@
         <v>91</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6197,7 +6191,7 @@
         <v>94</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>39</v>
@@ -6206,7 +6200,7 @@
         <v>95</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -6221,7 +6215,7 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -6238,10 +6232,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6267,23 +6261,23 @@
         <v>66</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="O35" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>39</v>
@@ -6301,31 +6295,31 @@
         <v>39</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
@@ -6340,7 +6334,7 @@
         <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -6357,10 +6351,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6383,19 +6377,19 @@
         <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>39</v>
@@ -6420,31 +6414,31 @@
         <v>39</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
@@ -6459,7 +6453,7 @@
         <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -6468,7 +6462,7 @@
         <v>39</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>39</v>
@@ -6476,10 +6470,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6505,16 +6499,16 @@
         <v>60</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>39</v>
@@ -6527,7 +6521,7 @@
         <v>39</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>39</v>
@@ -6563,7 +6557,7 @@
         <v>39</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
@@ -6578,7 +6572,7 @@
         <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -6587,7 +6581,7 @@
         <v>39</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>39</v>
@@ -6595,10 +6589,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6621,16 +6615,16 @@
         <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6644,7 +6638,7 @@
         <v>39</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>39</v>
@@ -6680,7 +6674,7 @@
         <v>39</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
@@ -6695,7 +6689,7 @@
         <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -6704,7 +6698,7 @@
         <v>39</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>39</v>
@@ -6712,10 +6706,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6738,13 +6732,13 @@
         <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6795,7 +6789,7 @@
         <v>39</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
@@ -6810,7 +6804,7 @@
         <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -6819,7 +6813,7 @@
         <v>39</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>39</v>
@@ -6827,10 +6821,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6853,16 +6847,16 @@
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6912,7 +6906,7 @@
         <v>39</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
@@ -6927,7 +6921,7 @@
         <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -6936,7 +6930,7 @@
         <v>39</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>39</v>
@@ -6944,10 +6938,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6970,26 +6964,26 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="P41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q41" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="O41" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="R41" t="s" s="2">
         <v>39</v>
       </c>
@@ -7033,7 +7027,7 @@
         <v>39</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
@@ -7048,13 +7042,13 @@
         <v>58</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>39</v>
@@ -7065,10 +7059,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7091,19 +7085,19 @@
         <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>39</v>
@@ -7152,7 +7146,7 @@
         <v>39</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -7167,16 +7161,16 @@
         <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>39</v>
@@ -7184,10 +7178,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7210,13 +7204,13 @@
         <v>39</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7267,7 +7261,7 @@
         <v>39</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
@@ -7282,7 +7276,7 @@
         <v>39</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -7299,14 +7293,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7328,13 +7322,13 @@
         <v>91</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7375,7 +7369,7 @@
         <v>94</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>39</v>
@@ -7384,7 +7378,7 @@
         <v>95</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
@@ -7399,7 +7393,7 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -7416,10 +7410,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7445,16 +7439,16 @@
         <v>66</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>39</v>
@@ -7479,31 +7473,31 @@
         <v>39</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
@@ -7518,7 +7512,7 @@
         <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -7527,7 +7521,7 @@
         <v>39</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>39</v>
@@ -7535,10 +7529,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7561,19 +7555,19 @@
         <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>39</v>
@@ -7622,7 +7616,7 @@
         <v>39</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
@@ -7637,7 +7631,7 @@
         <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -7646,7 +7640,7 @@
         <v>39</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>39</v>
@@ -7654,14 +7648,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7680,16 +7674,16 @@
         <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7739,7 +7733,7 @@
         <v>39</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
@@ -7754,7 +7748,7 @@
         <v>58</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -7763,7 +7757,7 @@
         <v>39</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>39</v>
@@ -7771,14 +7765,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7797,16 +7791,16 @@
         <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7856,7 +7850,7 @@
         <v>39</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
@@ -7871,7 +7865,7 @@
         <v>58</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -7880,7 +7874,7 @@
         <v>39</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>39</v>
@@ -7888,10 +7882,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7914,13 +7908,13 @@
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7971,7 +7965,7 @@
         <v>39</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
@@ -7986,7 +7980,7 @@
         <v>58</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -7995,7 +7989,7 @@
         <v>39</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>39</v>
@@ -8003,10 +7997,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8029,13 +8023,13 @@
         <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8086,7 +8080,7 @@
         <v>39</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -8101,7 +8095,7 @@
         <v>58</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -8110,7 +8104,7 @@
         <v>39</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>39</v>
@@ -8118,10 +8112,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8144,17 +8138,17 @@
         <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>39</v>
@@ -8203,7 +8197,7 @@
         <v>39</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
@@ -8218,7 +8212,7 @@
         <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -8227,7 +8221,7 @@
         <v>39</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>39</v>
@@ -8235,10 +8229,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8261,19 +8255,19 @@
         <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>39</v>
@@ -8322,7 +8316,7 @@
         <v>39</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
@@ -8337,16 +8331,16 @@
         <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>39</v>
@@ -8354,10 +8348,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8380,13 +8374,13 @@
         <v>39</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8437,7 +8431,7 @@
         <v>39</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
@@ -8452,7 +8446,7 @@
         <v>39</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -8469,14 +8463,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8498,13 +8492,13 @@
         <v>91</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8545,7 +8539,7 @@
         <v>94</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>39</v>
@@ -8554,7 +8548,7 @@
         <v>95</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
@@ -8569,7 +8563,7 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>39</v>
@@ -8586,10 +8580,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8615,10 +8609,10 @@
         <v>66</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8645,46 +8639,46 @@
         <v>39</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF55" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Z55" t="s" s="2">
+      <c r="AG55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI55" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>39</v>
@@ -8693,7 +8687,7 @@
         <v>39</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>39</v>
@@ -8701,10 +8695,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8727,19 +8721,19 @@
         <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>39</v>
@@ -8788,7 +8782,7 @@
         <v>39</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
@@ -8803,7 +8797,7 @@
         <v>58</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -8812,7 +8806,7 @@
         <v>39</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>39</v>
@@ -8820,10 +8814,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8849,65 +8843,65 @@
         <v>66</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="S57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y57" t="s" s="2">
+      <c r="AA57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
@@ -8922,7 +8916,7 @@
         <v>58</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -8931,7 +8925,7 @@
         <v>39</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>39</v>
@@ -8939,10 +8933,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8965,16 +8959,16 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9024,7 +9018,7 @@
         <v>39</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
@@ -9039,7 +9033,7 @@
         <v>58</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -9048,7 +9042,7 @@
         <v>39</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>39</v>
@@ -9056,10 +9050,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9082,13 +9076,13 @@
         <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9139,7 +9133,7 @@
         <v>39</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
@@ -9154,7 +9148,7 @@
         <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -9171,10 +9165,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9200,16 +9194,16 @@
         <v>66</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>39</v>
@@ -9234,13 +9228,13 @@
         <v>39</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>39</v>
@@ -9258,7 +9252,7 @@
         <v>39</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
@@ -9273,16 +9267,16 @@
         <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>39</v>
@@ -9290,10 +9284,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9316,19 +9310,19 @@
         <v>47</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>39</v>
@@ -9377,7 +9371,7 @@
         <v>39</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
@@ -9392,27 +9386,27 @@
         <v>58</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9435,19 +9429,19 @@
         <v>47</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>39</v>
@@ -9496,7 +9490,7 @@
         <v>39</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
@@ -9511,16 +9505,16 @@
         <v>58</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>39</v>
@@ -9528,10 +9522,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9542,7 +9536,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>39</v>
@@ -9554,19 +9548,19 @@
         <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>39</v>
@@ -9615,7 +9609,7 @@
         <v>39</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
@@ -9630,16 +9624,16 @@
         <v>58</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>39</v>
@@ -9647,10 +9641,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9673,13 +9667,13 @@
         <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9730,7 +9724,7 @@
         <v>39</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
@@ -9745,7 +9739,7 @@
         <v>39</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>
@@ -9762,14 +9756,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9791,13 +9785,13 @@
         <v>91</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9838,7 +9832,7 @@
         <v>94</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>39</v>
@@ -9847,7 +9841,7 @@
         <v>95</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>37</v>
@@ -9862,7 +9856,7 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -9879,10 +9873,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9908,16 +9902,16 @@
         <v>66</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>39</v>
@@ -9930,43 +9924,43 @@
         <v>39</v>
       </c>
       <c r="T66" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="U66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y66" t="s" s="2">
+      <c r="AA66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>37</v>
@@ -9981,7 +9975,7 @@
         <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>39</v>
@@ -9990,7 +9984,7 @@
         <v>39</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>39</v>
@@ -9998,10 +9992,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10027,13 +10021,13 @@
         <v>66</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10041,49 +10035,49 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="S67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y67" t="s" s="2">
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
@@ -10098,7 +10092,7 @@
         <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -10107,7 +10101,7 @@
         <v>39</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>39</v>
@@ -10115,10 +10109,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10141,19 +10135,19 @@
         <v>47</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="O68" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>39</v>
@@ -10166,7 +10160,7 @@
         <v>39</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>39</v>
@@ -10202,7 +10196,7 @@
         <v>39</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
@@ -10217,7 +10211,7 @@
         <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>39</v>
@@ -10226,7 +10220,7 @@
         <v>39</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>39</v>
@@ -10234,10 +10228,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10260,13 +10254,13 @@
         <v>47</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10281,7 +10275,7 @@
         <v>39</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>39</v>
@@ -10317,7 +10311,7 @@
         <v>39</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
@@ -10332,7 +10326,7 @@
         <v>58</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>39</v>
@@ -10341,7 +10335,7 @@
         <v>39</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>39</v>
@@ -10349,14 +10343,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10375,13 +10369,13 @@
         <v>47</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10396,7 +10390,7 @@
         <v>39</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>39</v>
@@ -10432,7 +10426,7 @@
         <v>39</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>37</v>
@@ -10447,7 +10441,7 @@
         <v>58</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -10456,7 +10450,7 @@
         <v>39</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>39</v>
@@ -10464,14 +10458,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10490,16 +10484,16 @@
         <v>47</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10513,7 +10507,7 @@
         <v>39</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>39</v>
@@ -10549,7 +10543,7 @@
         <v>39</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
@@ -10564,7 +10558,7 @@
         <v>58</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -10573,7 +10567,7 @@
         <v>39</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>39</v>
@@ -10581,14 +10575,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10607,13 +10601,13 @@
         <v>47</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10664,7 +10658,7 @@
         <v>39</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
@@ -10679,7 +10673,7 @@
         <v>58</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -10688,7 +10682,7 @@
         <v>39</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>39</v>
@@ -10696,14 +10690,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10722,13 +10716,13 @@
         <v>47</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10743,7 +10737,7 @@
         <v>39</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>39</v>
@@ -10779,7 +10773,7 @@
         <v>39</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
@@ -10794,7 +10788,7 @@
         <v>58</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -10803,7 +10797,7 @@
         <v>39</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>39</v>
@@ -10811,10 +10805,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10837,16 +10831,16 @@
         <v>47</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10896,7 +10890,7 @@
         <v>39</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
@@ -10911,7 +10905,7 @@
         <v>58</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>39</v>
@@ -10920,7 +10914,7 @@
         <v>39</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>39</v>
@@ -10928,10 +10922,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10954,17 +10948,17 @@
         <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>39</v>
@@ -10977,7 +10971,7 @@
         <v>39</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>39</v>
@@ -11013,7 +11007,7 @@
         <v>39</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>37</v>
@@ -11028,7 +11022,7 @@
         <v>58</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>39</v>
@@ -11037,7 +11031,7 @@
         <v>39</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>39</v>
@@ -11045,10 +11039,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11071,17 +11065,17 @@
         <v>39</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>39</v>
@@ -11106,13 +11100,13 @@
         <v>39</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>39</v>
@@ -11130,7 +11124,7 @@
         <v>39</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
@@ -11145,16 +11139,16 @@
         <v>58</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>39</v>
@@ -11162,10 +11156,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11188,19 +11182,19 @@
         <v>39</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>39</v>
@@ -11249,7 +11243,7 @@
         <v>39</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
@@ -11264,16 +11258,16 @@
         <v>58</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>39</v>
@@ -11281,10 +11275,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11307,19 +11301,19 @@
         <v>39</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>39</v>
@@ -11368,7 +11362,7 @@
         <v>39</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>37</v>
@@ -11383,16 +11377,16 @@
         <v>58</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>39</v>
@@ -11400,10 +11394,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11426,19 +11420,19 @@
         <v>39</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>39</v>
@@ -11487,7 +11481,7 @@
         <v>39</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>37</v>
@@ -11499,13 +11493,13 @@
         <v>39</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>39</v>
@@ -11519,10 +11513,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11545,13 +11539,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11602,7 +11596,7 @@
         <v>39</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>37</v>
@@ -11617,7 +11611,7 @@
         <v>39</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -11634,14 +11628,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11663,13 +11657,13 @@
         <v>91</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11719,7 +11713,7 @@
         <v>39</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>37</v>
@@ -11734,7 +11728,7 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>39</v>
@@ -11751,14 +11745,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11780,16 +11774,16 @@
         <v>91</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>39</v>
@@ -11838,7 +11832,7 @@
         <v>39</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>37</v>
@@ -11870,10 +11864,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11896,17 +11890,17 @@
         <v>39</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>39</v>
@@ -11931,13 +11925,13 @@
         <v>39</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>39</v>
@@ -11955,7 +11949,7 @@
         <v>39</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>37</v>
@@ -11970,16 +11964,16 @@
         <v>58</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>39</v>
@@ -11987,10 +11981,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12013,17 +12007,17 @@
         <v>39</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>39</v>
@@ -12072,7 +12066,7 @@
         <v>39</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>37</v>
@@ -12087,16 +12081,16 @@
         <v>58</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>39</v>
@@ -12104,10 +12098,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12130,19 +12124,19 @@
         <v>39</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="O85" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>39</v>
@@ -12191,7 +12185,7 @@
         <v>39</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>37</v>
@@ -12206,16 +12200,16 @@
         <v>58</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>39</v>
@@ -12223,10 +12217,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12249,17 +12243,17 @@
         <v>39</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>39</v>
@@ -12308,7 +12302,7 @@
         <v>39</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>37</v>
@@ -12323,16 +12317,16 @@
         <v>58</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>39</v>
@@ -12340,10 +12334,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12369,14 +12363,14 @@
         <v>66</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>39</v>
@@ -12401,13 +12395,13 @@
         <v>39</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>39</v>
@@ -12425,7 +12419,7 @@
         <v>39</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>37</v>
@@ -12440,16 +12434,16 @@
         <v>58</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>39</v>
@@ -12457,10 +12451,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12483,17 +12477,17 @@
         <v>39</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>39</v>
@@ -12542,7 +12536,7 @@
         <v>39</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>37</v>
@@ -12551,22 +12545,22 @@
         <v>46</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>39</v>
@@ -12574,10 +12568,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12600,13 +12594,13 @@
         <v>39</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12657,7 +12651,7 @@
         <v>39</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>37</v>
@@ -12672,10 +12666,10 @@
         <v>58</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>39</v>
@@ -12689,10 +12683,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12715,19 +12709,19 @@
         <v>39</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>39</v>
@@ -12776,7 +12770,7 @@
         <v>39</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>37</v>
@@ -12791,10 +12785,10 @@
         <v>58</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>39</v>
@@ -12808,10 +12802,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12834,13 +12828,13 @@
         <v>39</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12891,7 +12885,7 @@
         <v>39</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>37</v>
@@ -12906,7 +12900,7 @@
         <v>39</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>39</v>
@@ -12923,14 +12917,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12952,13 +12946,13 @@
         <v>91</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13008,7 +13002,7 @@
         <v>39</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>37</v>
@@ -13023,7 +13017,7 @@
         <v>97</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>39</v>
@@ -13040,14 +13034,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13069,16 +13063,16 @@
         <v>91</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>39</v>
@@ -13127,7 +13121,7 @@
         <v>39</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>37</v>
@@ -13159,10 +13153,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13185,19 +13179,19 @@
         <v>39</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>39</v>
@@ -13246,7 +13240,7 @@
         <v>39</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>46</v>
@@ -13261,16 +13255,16 @@
         <v>58</v>
       </c>
       <c r="AK94" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>39</v>
@@ -13278,10 +13272,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13304,19 +13298,19 @@
         <v>39</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>39</v>
@@ -13365,7 +13359,7 @@
         <v>39</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>37</v>
@@ -13380,16 +13374,16 @@
         <v>58</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>39</v>
@@ -13397,14 +13391,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13423,16 +13417,16 @@
         <v>39</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13482,7 +13476,7 @@
         <v>39</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>37</v>
@@ -13497,16 +13491,16 @@
         <v>58</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>39</v>
@@ -13514,10 +13508,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13540,19 +13534,19 @@
         <v>47</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>39</v>
@@ -13601,7 +13595,7 @@
         <v>39</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>37</v>
@@ -13616,10 +13610,10 @@
         <v>58</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>39</v>
@@ -13633,10 +13627,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13659,19 +13653,19 @@
         <v>47</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>39</v>
@@ -13720,7 +13714,7 @@
         <v>39</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>37</v>
@@ -13735,10 +13729,10 @@
         <v>58</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>39</v>
@@ -13752,10 +13746,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13778,13 +13772,13 @@
         <v>39</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13835,7 +13829,7 @@
         <v>39</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>37</v>
@@ -13850,7 +13844,7 @@
         <v>39</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>39</v>
@@ -13867,14 +13861,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13896,13 +13890,13 @@
         <v>91</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13952,7 +13946,7 @@
         <v>39</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>37</v>
@@ -13967,7 +13961,7 @@
         <v>97</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>39</v>
@@ -13984,14 +13978,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14013,16 +14007,16 @@
         <v>91</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>39</v>
@@ -14071,7 +14065,7 @@
         <v>39</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>37</v>
@@ -14103,10 +14097,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14129,16 +14123,16 @@
         <v>47</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14188,7 +14182,7 @@
         <v>39</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>46</v>
@@ -14203,16 +14197,16 @@
         <v>58</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>39</v>
@@ -14220,10 +14214,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14249,10 +14243,10 @@
         <v>66</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14279,13 +14273,13 @@
         <v>39</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>39</v>
@@ -14303,7 +14297,7 @@
         <v>39</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>46</v>
@@ -14318,10 +14312,10 @@
         <v>58</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>39</v>
